--- a/bases-para-cyn/titulares_x_provincia.xlsx
+++ b/bases-para-cyn/titulares_x_provincia.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>80124</v>
+        <v>80126</v>
       </c>
       <c r="C3">
-        <v>5.049999558808885</v>
+        <v>5.050125613413218</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>55694</v>
+        <v>55716</v>
       </c>
       <c r="C9">
-        <v>3.510242566875119</v>
+        <v>3.511629167522787</v>
       </c>
     </row>
     <row r="10">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>32739</v>
+        <v>32752</v>
       </c>
       <c r="C12">
-        <v>2.063450845637314</v>
+        <v>2.064270200565481</v>
       </c>
     </row>
     <row r="13">
@@ -684,45 +684,6 @@
       </c>
       <c r="C25">
         <v>0.1912878620760941</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>CÃ³rdoba</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>0.001386600647668557</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Entre RÃ­os</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>13</v>
-      </c>
-      <c r="C27">
-        <v>0.0008193549281677838</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TucumÃ¡n</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0.0001260546043335052</v>
       </c>
     </row>
   </sheetData>
